--- a/unit8-linear optimization/Investment.xlsx
+++ b/unit8-linear optimization/Investment.xlsx
@@ -1,15 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="problem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">problem!$G$6:$G$13</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">problem!$C$20:$C$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">problem!$C$28</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">problem!$D$16</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">problem!$E$20:$E$27</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">problem!$E$28</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+  </definedNames>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>INVESTMENT MANAGEMENT UNDER TAXATION</t>
   </si>
@@ -67,17 +92,65 @@
   </si>
   <si>
     <t>Pfizer</t>
+  </si>
+  <si>
+    <t>number of shares to sell</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the estimated value next year</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constraints:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LHS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RHS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>number to sell not exceeded</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>est. money to gain after tax and transaction cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number remain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -85,20 +158,72 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -125,19 +250,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -195,11 +307,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -217,10 +344,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,30 +353,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -577,25 +732,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="26.33203125" style="3"/>
+    <col min="3" max="3" width="20.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="3"/>
+    <col min="8" max="8" width="14.875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="26.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +762,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -613,7 +770,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +780,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="16" thickBot="1">
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -631,7 +788,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="16" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -647,171 +804,411 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8">
+      <c r="G5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>150</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>15.68</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>31.8</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8">
+      <c r="G6" s="18">
+        <v>100.00000000002269</v>
+      </c>
+      <c r="H6" s="3">
+        <f>C6-G6</f>
+        <v>49.999999999977305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>150</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>22.1</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>24.28</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>26.31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8">
+      <c r="G7" s="18">
+        <v>75</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H13" si="0">C7-G7</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>150</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>30.39</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>32.5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>34.549999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8">
+      <c r="G8" s="18">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>150</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>8.93</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>14.16</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>15.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8">
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>150</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>40.549999999999997</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>50.99</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>62.43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>150</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>18.579999999999998</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>24.17</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>26.68</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>150</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>22.54</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>23.67</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>23.85</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1">
-      <c r="A13" s="12">
+      <c r="G12" s="18">
+        <v>75</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
+      <c r="A13" s="11">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>150</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>24.84</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>28.77</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>31.66</v>
       </c>
+      <c r="G13" s="18">
+        <v>54.350115187954678</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>95.649884812045315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="20">
+        <f>SUMPRODUCT(F6:F13,H6:H13)</f>
+        <v>26507.525353148685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="24">
+        <f>G6</f>
+        <v>100.00000000002269</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="24">
+        <f t="shared" ref="C21:C27" si="1">G7</f>
+        <v>75</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="24">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="25"/>
+      <c r="B25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="25"/>
+      <c r="B26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="25"/>
+      <c r="B27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" si="1"/>
+        <v>54.350115187954678</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36" customHeight="1">
+      <c r="A28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="24">
+        <f>SUMPRODUCT(E6:E13,G6:G13)*(1-1%)-SUMPRODUCT((E6:E13-D6:D13),G6:G13)*30%</f>
+        <v>10000.000000011889</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="24">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
